--- a/Doc/watering_plan.xlsx
+++ b/Doc/watering_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adric\OneDrive\Documents\UNIGE\Projet Bachelor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adric\OneDrive\Documents\UNIGE\Projet Bachelor\BSc-sensor-machine-learning\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E14540-9308-4D92-B50E-9791B8155CC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E344F-2747-40BE-9F31-4764E64A8449}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{57D501B5-715A-400F-94FF-A2DB77322A3D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -53,19 +53,16 @@
     <t>30 s/j</t>
   </si>
   <si>
-    <t>Full watering</t>
-  </si>
-  <si>
     <t>40 s/j</t>
   </si>
   <si>
-    <t>20 s/2j</t>
-  </si>
-  <si>
-    <t>20 s/0.5j</t>
-  </si>
-  <si>
     <t>Autre</t>
+  </si>
+  <si>
+    <t>3-May</t>
+  </si>
+  <si>
+    <t>35s/j</t>
   </si>
 </sst>
 </file>
@@ -650,7 +647,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -755,7 +752,7 @@
         <v>43572</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -764,11 +761,11 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
-        <f t="shared" si="0"/>
+        <f>A8+7</f>
         <v>43579</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -781,19 +778,16 @@
         <v>43586</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
-        <f t="shared" si="0"/>
-        <v>43593</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
@@ -804,88 +798,55 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
-        <f t="shared" si="0"/>
-        <v>43600</v>
-      </c>
+      <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>43607</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8">
-        <f t="shared" si="0"/>
-        <v>43614</v>
-      </c>
+      <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8">
-        <f t="shared" si="0"/>
-        <v>43621</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8">
-        <f t="shared" si="0"/>
-        <v>43628</v>
-      </c>
+      <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8">
-        <f t="shared" si="0"/>
-        <v>43635</v>
-      </c>
+      <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
-        <v>43642</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8">
-        <f t="shared" si="0"/>
-        <v>43649</v>
-      </c>
+      <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <f>A19+7</f>
-        <v>43656</v>
-      </c>
+      <c r="A20" s="9"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>

--- a/Doc/watering_plan.xlsx
+++ b/Doc/watering_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adric\OneDrive\Documents\UNIGE\Projet Bachelor\BSc-sensor-machine-learning\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E344F-2747-40BE-9F31-4764E64A8449}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF4D86A-7866-4973-9406-59EF15E3BFFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{57D501B5-715A-400F-94FF-A2DB77322A3D}"/>
   </bookViews>
@@ -339,8 +339,8 @@
     <tableColumn id="1" xr3:uid="{74680D98-8F0C-4CCC-BA96-551ED0217503}" name="Date" dataDxfId="3">
       <calculatedColumnFormula>A1+7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5D457571-7B79-45BD-9586-D3D2D9A2539B}" name="Ceres" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4392C805-7E42-449B-B85E-998A753B99C0}" name="Demeter" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5D457571-7B79-45BD-9586-D3D2D9A2539B}" name="Demeter" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4392C805-7E42-449B-B85E-998A753B99C0}" name="Ceres" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{8176272D-3E55-4B4A-8B47-236E844C4E45}" name="Autre" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A19" si="0">A3+7</f>
+        <f t="shared" ref="A4:A10" si="0">A3+7</f>
         <v>43544</v>
       </c>
       <c r="B4" s="6" t="s">
